--- a/Figure3/data/F3_info.xlsx
+++ b/Figure3/data/F3_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\dell\Documents\GitHub\FAXP\Figure2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\dell\Documents\GitHub\TO_PUBLIC\FAXP\Figure3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E45B3E-D254-402F-A6E1-F4A9930F70A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFD2865-F308-4D21-8B45-239DB259A249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12615" yWindow="2610" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="2790" windowWidth="21390" windowHeight="12690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Label in file</t>
   </si>
@@ -34,10 +34,6 @@
     <t>Label in figure</t>
   </si>
   <si>
-    <t>Note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>InGel</t>
   </si>
   <si>
@@ -45,11 +41,6 @@
   </si>
   <si>
     <t>InTip</t>
-  </si>
-  <si>
-    <t>_1-6为每个条件下的6个重复。
-针对InGel_2_和InTip_2_的部分不用看。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>InGel_1_</t>
@@ -93,12 +84,6 @@
   </si>
   <si>
     <t>InGel_3mm</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>_1-3为每个条件下的3个重复。</t>
   </si>
 </sst>
 </file>
@@ -146,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -169,31 +154,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFD9D9D9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -203,16 +168,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,54 +449,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:2" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:C3"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -549,10 +491,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADB9403-9DAF-45CA-8C09-6C351CF9579E}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -561,15 +503,14 @@
     <col min="2" max="2" width="28.125" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -577,11 +518,8 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>73</v>
       </c>
@@ -589,14 +527,11 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>104</v>
       </c>
@@ -604,12 +539,11 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>156</v>
       </c>
@@ -617,12 +551,11 @@
         <v>0.191</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>208</v>
       </c>
@@ -630,14 +563,13 @@
         <v>0.33900000000000002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>312</v>
       </c>
@@ -645,14 +577,13 @@
         <v>0.76300000000000001</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>416</v>
       </c>
@@ -660,14 +591,13 @@
         <v>1.357</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>624</v>
       </c>
@@ -675,17 +605,13 @@
         <v>3.0539999999999998</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="7"/>
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:E8"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
